--- a/Dados/26_mar.xlsx
+++ b/Dados/26_mar.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,53 +367,65 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>aruja</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>barueri</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>cidade</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Casos confirmados</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Óbitos confirmados</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>aruja</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -411,42 +436,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -457,18 +480,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -479,40 +504,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -523,53 +548,51 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -580,97 +603,97 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>899</v>
-      </c>
-      <c r="C28" t="n">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -681,53 +704,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>899</v>
+      </c>
+      <c r="C30" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -738,15 +763,59 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>tatui</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>valinhos</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>vargem grande paulista</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>outros estados</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>outros paises</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>28</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Dados/26_mar.xlsx
+++ b/Dados/26_mar.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,114 +386,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cidade</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Casos confirmados</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Óbitos confirmados</t>
-        </is>
-      </c>
+          <t>aruja</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aruja</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>barueri</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -504,7 +498,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -515,18 +509,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -537,86 +531,86 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -627,97 +621,97 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>899</v>
+      </c>
+      <c r="C29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>899</v>
-      </c>
-      <c r="C30" t="n">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -728,31 +722,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -763,7 +757,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -774,48 +768,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vargem grande paulista</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>outros estados</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>8</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>outros paises</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>28</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
